--- a/LR3/table_2_41.xlsx
+++ b/LR3/table_2_41.xlsx
@@ -226,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -399,17 +399,6 @@
     </border>
     <border>
       <left/>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -423,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -500,24 +489,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,25 +585,25 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-44561</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-44561</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-44561</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-44561</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-44561</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-44561</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-44561</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,25 +705,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,25 +804,25 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,25 +927,25 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,25 +1024,25 @@
                   <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,11 +1058,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="165395840"/>
-        <c:axId val="165938688"/>
+        <c:axId val="136450048"/>
+        <c:axId val="136451968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165395840"/>
+        <c:axId val="136450048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1130,7 +1108,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165938688"/>
+        <c:crossAx val="136451968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1138,7 +1116,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165938688"/>
+        <c:axId val="136451968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1208,7 +1186,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165395840"/>
+        <c:crossAx val="136450048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="31"/>
@@ -1465,7 +1443,7 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1662,58 +1640,86 @@
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>-44561</v>
+        <v>3</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="8" t="str">
+      <c r="E5" s="14">
+        <v>44564</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11</v>
+      </c>
+      <c r="G5" s="14">
+        <f>WORKDAY.INTL(E5,F5,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44580</v>
+      </c>
+      <c r="H5" s="8">
         <f>IF(AND(I5-$C5&gt;0,'График отпусков 2022 год'!$F5&gt;0),I5-$C5-D5-('График отпусков 2022 год'!$G5-'График отпусков 2022 год'!$E5),"")</f>
-        <v/>
+        <v>31</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="8" t="str">
+      <c r="I5" s="14">
+        <v>44612</v>
+      </c>
+      <c r="J5" s="8">
+        <v>11</v>
+      </c>
+      <c r="K5" s="14">
+        <f>WORKDAY.INTL(I5,J5,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44624</v>
+      </c>
+      <c r="L5" s="8">
         <f>IF(AND(M5-$C5&gt;0,'График отпусков 2022 год'!$F5&gt;0,'График отпусков 2022 год'!$J5&gt;0),M5-$C5-$D5-('График отпусков 2022 год'!$G5-'График отпусков 2022 год'!$E5)-$H5-('График отпусков 2022 год'!$K5-'График отпусков 2022 год'!$I5)-1,"")</f>
-        <v/>
+        <v>58</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="8" t="str">
+      <c r="M5" s="14">
+        <v>44683</v>
+      </c>
+      <c r="N5" s="8">
+        <v>6</v>
+      </c>
+      <c r="O5" s="14">
+        <f>WORKDAY.INTL(M5,N5,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44689</v>
+      </c>
+      <c r="P5" s="8">
         <f>IF(AND(Q5-$C5&gt;0,'График отпусков 2022 год'!$F5&gt;0,'График отпусков 2022 год'!$J5&gt;0,'График отпусков 2022 год'!$N5&gt;0),Q5-$C5-$D5-('График отпусков 2022 год'!$G5-'График отпусков 2022 год'!$E5)-$H5-('График отпусков 2022 год'!$K5-'График отпусков 2022 год'!$I5)-L5-('График отпусков 2022 год'!$O5-'График отпусков 2022 год'!$M5)-2,"")</f>
-        <v/>
+        <v>182</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
+      <c r="Q5" s="14">
+        <v>44872</v>
+      </c>
+      <c r="R5" s="8">
+        <v>6</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" ref="S5:S11" si="4">Q5+R5-1</f>
+        <v>44877</v>
+      </c>
       <c r="T5" s="10">
         <v>28</v>
       </c>
       <c r="U5" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="V5" s="25">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>-6</v>
       </c>
-      <c r="X5" s="12" t="str">
+      <c r="X5" s="12">
         <f>IF('График отпусков 2022 год'!$G5-'График отпусков 2022 год'!$E5&gt;0,'График отпусков 2022 год'!$G5-'График отпусков 2022 год'!$E5+1,"")</f>
-        <v/>
+        <v>17</v>
       </c>
-      <c r="Y5" s="13" t="str">
+      <c r="Y5" s="13">
         <f>IF('График отпусков 2022 год'!$K5-'График отпусков 2022 год'!$I5&gt;0,'График отпусков 2022 год'!$K5-'График отпусков 2022 год'!$I5+1,"")</f>
-        <v/>
+        <v>13</v>
       </c>
-      <c r="Z5" s="13" t="str">
+      <c r="Z5" s="13">
         <f>IF('График отпусков 2022 год'!$O5-'График отпусков 2022 год'!$M5&gt;0,'График отпусков 2022 год'!$O5-'График отпусков 2022 год'!$M5+1,"")</f>
-        <v/>
+        <v>7</v>
       </c>
-      <c r="AA5" s="13" t="str">
+      <c r="AA5" s="13">
         <f>IF('График отпусков 2022 год'!$S5-'График отпусков 2022 год'!$Q5&gt;0,'График отпусков 2022 год'!$S5-'График отпусков 2022 год'!$Q5+1,"")</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="13.2">
@@ -1727,58 +1733,86 @@
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>-44561</v>
+        <v>4</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="8" t="str">
+      <c r="E6" s="14">
+        <v>44565</v>
+      </c>
+      <c r="F6" s="8">
+        <v>12</v>
+      </c>
+      <c r="G6" s="14">
+        <f>WORKDAY.INTL(E6,F6,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44581</v>
+      </c>
+      <c r="H6" s="8">
         <f>IF(AND(I6-$C6&gt;0,'График отпусков 2022 год'!$F6&gt;0),I6-$C6-D6-('График отпусков 2022 год'!$G6-'График отпусков 2022 год'!$E6),"")</f>
-        <v/>
+        <v>31</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="8" t="str">
+      <c r="I6" s="14">
+        <v>44613</v>
+      </c>
+      <c r="J6" s="8">
+        <v>12</v>
+      </c>
+      <c r="K6" s="14">
+        <f>WORKDAY.INTL(I6,J6,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44626</v>
+      </c>
+      <c r="L6" s="8">
         <f>IF(AND(M6-$C6&gt;0,'График отпусков 2022 год'!$F6&gt;0,'График отпусков 2022 год'!$J6&gt;0),M6-$C6-$D6-('График отпусков 2022 год'!$G6-'График отпусков 2022 год'!$E6)-$H6-('График отпусков 2022 год'!$K6-'График отпусков 2022 год'!$I6)-1,"")</f>
-        <v/>
+        <v>57</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="8" t="str">
+      <c r="M6" s="14">
+        <v>44684</v>
+      </c>
+      <c r="N6" s="8">
+        <v>7</v>
+      </c>
+      <c r="O6" s="14">
+        <f>WORKDAY.INTL(M6,N6,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44692</v>
+      </c>
+      <c r="P6" s="8">
         <f>IF(AND(Q6-$C6&gt;0,'График отпусков 2022 год'!$F6&gt;0,'График отпусков 2022 год'!$J6&gt;0,'График отпусков 2022 год'!$N6&gt;0),Q6-$C6-$D6-('График отпусков 2022 год'!$G6-'График отпусков 2022 год'!$E6)-$H6-('График отпусков 2022 год'!$K6-'График отпусков 2022 год'!$I6)-L6-('График отпусков 2022 год'!$O6-'График отпусков 2022 год'!$M6)-2,"")</f>
-        <v/>
+        <v>180</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
+      <c r="Q6" s="14">
+        <v>44873</v>
+      </c>
+      <c r="R6" s="8">
+        <v>7</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="4"/>
+        <v>44879</v>
+      </c>
       <c r="T6" s="10">
         <v>28</v>
       </c>
       <c r="U6" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="V6" s="25">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>-10</v>
       </c>
-      <c r="X6" s="12" t="str">
+      <c r="X6" s="12">
         <f>IF('График отпусков 2022 год'!$G6-'График отпусков 2022 год'!$E6&gt;0,'График отпусков 2022 год'!$G6-'График отпусков 2022 год'!$E6+1,"")</f>
-        <v/>
+        <v>17</v>
       </c>
-      <c r="Y6" s="13" t="str">
+      <c r="Y6" s="13">
         <f>IF('График отпусков 2022 год'!$K6-'График отпусков 2022 год'!$I6&gt;0,'График отпусков 2022 год'!$K6-'График отпусков 2022 год'!$I6+1,"")</f>
-        <v/>
+        <v>14</v>
       </c>
-      <c r="Z6" s="13" t="str">
+      <c r="Z6" s="13">
         <f>IF('График отпусков 2022 год'!$O6-'График отпусков 2022 год'!$M6&gt;0,'График отпусков 2022 год'!$O6-'График отпусков 2022 год'!$M6+1,"")</f>
-        <v/>
+        <v>9</v>
       </c>
-      <c r="AA6" s="13" t="str">
+      <c r="AA6" s="13">
         <f>IF('График отпусков 2022 год'!$S6-'График отпусков 2022 год'!$Q6&gt;0,'График отпусков 2022 год'!$S6-'График отпусков 2022 год'!$Q6+1,"")</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="13.2">
@@ -1792,58 +1826,86 @@
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>-44561</v>
+        <v>5</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="8" t="str">
+      <c r="E7" s="14">
+        <v>44566</v>
+      </c>
+      <c r="F7" s="8">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14">
+        <f>WORKDAY.INTL(E7,F7,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44582</v>
+      </c>
+      <c r="H7" s="8">
         <f>IF(AND(I7-$C7&gt;0,'График отпусков 2022 год'!$F7&gt;0),I7-$C7-D7-('График отпусков 2022 год'!$G7-'График отпусков 2022 год'!$E7),"")</f>
-        <v/>
+        <v>31</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="8" t="str">
+      <c r="I7" s="14">
+        <v>44614</v>
+      </c>
+      <c r="J7" s="8">
+        <v>13</v>
+      </c>
+      <c r="K7" s="14">
+        <f>WORKDAY.INTL(I7,J7,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44629</v>
+      </c>
+      <c r="L7" s="8">
         <f>IF(AND(M7-$C7&gt;0,'График отпусков 2022 год'!$F7&gt;0,'График отпусков 2022 год'!$J7&gt;0),M7-$C7-$D7-('График отпусков 2022 год'!$G7-'График отпусков 2022 год'!$E7)-$H7-('График отпусков 2022 год'!$K7-'График отпусков 2022 год'!$I7)-1,"")</f>
-        <v/>
+        <v>55</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="8" t="str">
+      <c r="M7" s="14">
+        <v>44685</v>
+      </c>
+      <c r="N7" s="8">
+        <v>8</v>
+      </c>
+      <c r="O7" s="14">
+        <f>WORKDAY.INTL(M7,N7,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44694</v>
+      </c>
+      <c r="P7" s="8">
         <f>IF(AND(Q7-$C7&gt;0,'График отпусков 2022 год'!$F7&gt;0,'График отпусков 2022 год'!$J7&gt;0,'График отпусков 2022 год'!$N7&gt;0),Q7-$C7-$D7-('График отпусков 2022 год'!$G7-'График отпусков 2022 год'!$E7)-$H7-('График отпусков 2022 год'!$K7-'График отпусков 2022 год'!$I7)-L7-('График отпусков 2022 год'!$O7-'График отпусков 2022 год'!$M7)-2,"")</f>
-        <v/>
+        <v>179</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
+      <c r="Q7" s="14">
+        <v>44874</v>
+      </c>
+      <c r="R7" s="8">
+        <v>8</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="4"/>
+        <v>44881</v>
+      </c>
       <c r="T7" s="10">
         <v>28</v>
       </c>
       <c r="U7" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V7" s="25">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>-14</v>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="12">
         <f>IF('График отпусков 2022 год'!$G7-'График отпусков 2022 год'!$E7&gt;0,'График отпусков 2022 год'!$G7-'График отпусков 2022 год'!$E7+1,"")</f>
-        <v/>
+        <v>17</v>
       </c>
-      <c r="Y7" s="13" t="str">
+      <c r="Y7" s="13">
         <f>IF('График отпусков 2022 год'!$K7-'График отпусков 2022 год'!$I7&gt;0,'График отпусков 2022 год'!$K7-'График отпусков 2022 год'!$I7+1,"")</f>
-        <v/>
+        <v>16</v>
       </c>
-      <c r="Z7" s="13" t="str">
+      <c r="Z7" s="13">
         <f>IF('График отпусков 2022 год'!$O7-'График отпусков 2022 год'!$M7&gt;0,'График отпусков 2022 год'!$O7-'График отпусков 2022 год'!$M7+1,"")</f>
-        <v/>
+        <v>10</v>
       </c>
-      <c r="AA7" s="13" t="str">
+      <c r="AA7" s="13">
         <f>IF('График отпусков 2022 год'!$S7-'График отпусков 2022 год'!$Q7&gt;0,'График отпусков 2022 год'!$S7-'График отпусков 2022 год'!$Q7+1,"")</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="13.2">
@@ -1857,58 +1919,86 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>-44561</v>
+        <v>6</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="8" t="str">
+      <c r="E8" s="14">
+        <v>44567</v>
+      </c>
+      <c r="F8" s="8">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14">
+        <f>WORKDAY.INTL(E8,F8,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44583</v>
+      </c>
+      <c r="H8" s="8">
         <f>IF(AND(I8-$C8&gt;0,'График отпусков 2022 год'!$F8&gt;0),I8-$C8-D8-('График отпусков 2022 год'!$G8-'График отпусков 2022 год'!$E8),"")</f>
-        <v/>
+        <v>31</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="8" t="str">
+      <c r="I8" s="14">
+        <v>44615</v>
+      </c>
+      <c r="J8" s="8">
+        <v>14</v>
+      </c>
+      <c r="K8" s="14">
+        <f>WORKDAY.INTL(I8,J8,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44630</v>
+      </c>
+      <c r="L8" s="8">
         <f>IF(AND(M8-$C8&gt;0,'График отпусков 2022 год'!$F8&gt;0,'График отпусков 2022 год'!$J8&gt;0),M8-$C8-$D8-('График отпусков 2022 год'!$G8-'График отпусков 2022 год'!$E8)-$H8-('График отпусков 2022 год'!$K8-'График отпусков 2022 год'!$I8)-1,"")</f>
-        <v/>
+        <v>55</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="8" t="str">
+      <c r="M8" s="14">
+        <v>44686</v>
+      </c>
+      <c r="N8" s="8">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14">
+        <f>WORKDAY.INTL(M8,N8,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44696</v>
+      </c>
+      <c r="P8" s="8">
         <f>IF(AND(Q8-$C8&gt;0,'График отпусков 2022 год'!$F8&gt;0,'График отпусков 2022 год'!$J8&gt;0,'График отпусков 2022 год'!$N8&gt;0),Q8-$C8-$D8-('График отпусков 2022 год'!$G8-'График отпусков 2022 год'!$E8)-$H8-('График отпусков 2022 год'!$K8-'График отпусков 2022 год'!$I8)-L8-('График отпусков 2022 год'!$O8-'График отпусков 2022 год'!$M8)-2,"")</f>
-        <v/>
+        <v>178</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
+      <c r="Q8" s="14">
+        <v>44875</v>
+      </c>
+      <c r="R8" s="8">
+        <v>9</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="4"/>
+        <v>44883</v>
+      </c>
       <c r="T8" s="10">
         <v>28</v>
       </c>
       <c r="U8" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="V8" s="25">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>-18</v>
       </c>
-      <c r="X8" s="12" t="str">
+      <c r="X8" s="12">
         <f>IF('График отпусков 2022 год'!$G8-'График отпусков 2022 год'!$E8&gt;0,'График отпусков 2022 год'!$G8-'График отпусков 2022 год'!$E8+1,"")</f>
-        <v/>
+        <v>17</v>
       </c>
-      <c r="Y8" s="13" t="str">
+      <c r="Y8" s="13">
         <f>IF('График отпусков 2022 год'!$K8-'График отпусков 2022 год'!$I8&gt;0,'График отпусков 2022 год'!$K8-'График отпусков 2022 год'!$I8+1,"")</f>
-        <v/>
+        <v>16</v>
       </c>
-      <c r="Z8" s="13" t="str">
+      <c r="Z8" s="13">
         <f>IF('График отпусков 2022 год'!$O8-'График отпусков 2022 год'!$M8&gt;0,'График отпусков 2022 год'!$O8-'График отпусков 2022 год'!$M8+1,"")</f>
-        <v/>
+        <v>11</v>
       </c>
-      <c r="AA8" s="13" t="str">
+      <c r="AA8" s="13">
         <f>IF('График отпусков 2022 год'!$S8-'График отпусков 2022 год'!$Q8&gt;0,'График отпусков 2022 год'!$S8-'График отпусков 2022 год'!$Q8+1,"")</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="13.2">
@@ -1922,58 +2012,86 @@
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>-44561</v>
+        <v>7</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8" t="str">
+      <c r="E9" s="14">
+        <v>44568</v>
+      </c>
+      <c r="F9" s="8">
+        <v>15</v>
+      </c>
+      <c r="G9" s="14">
+        <f>WORKDAY.INTL(E9,F9,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44584</v>
+      </c>
+      <c r="H9" s="8">
         <f>IF(AND(I9-$C9&gt;0,'График отпусков 2022 год'!$F9&gt;0),I9-$C9-D9-('График отпусков 2022 год'!$G9-'График отпусков 2022 год'!$E9),"")</f>
-        <v/>
+        <v>31</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="8" t="str">
+      <c r="I9" s="14">
+        <v>44616</v>
+      </c>
+      <c r="J9" s="8">
+        <v>15</v>
+      </c>
+      <c r="K9" s="14">
+        <f>WORKDAY.INTL(I9,J9,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44632</v>
+      </c>
+      <c r="L9" s="8">
         <f>IF(AND(M9-$C9&gt;0,'График отпусков 2022 год'!$F9&gt;0,'График отпусков 2022 год'!$J9&gt;0),M9-$C9-$D9-('График отпусков 2022 год'!$G9-'График отпусков 2022 год'!$E9)-$H9-('График отпусков 2022 год'!$K9-'График отпусков 2022 год'!$I9)-1,"")</f>
-        <v/>
+        <v>54</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="8" t="str">
+      <c r="M9" s="14">
+        <v>44687</v>
+      </c>
+      <c r="N9" s="8">
+        <v>10</v>
+      </c>
+      <c r="O9" s="14">
+        <f>WORKDAY.INTL(M9,N9,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44698</v>
+      </c>
+      <c r="P9" s="8">
         <f>IF(AND(Q9-$C9&gt;0,'График отпусков 2022 год'!$F9&gt;0,'График отпусков 2022 год'!$J9&gt;0,'График отпусков 2022 год'!$N9&gt;0),Q9-$C9-$D9-('График отпусков 2022 год'!$G9-'График отпусков 2022 год'!$E9)-$H9-('График отпусков 2022 год'!$K9-'График отпусков 2022 год'!$I9)-L9-('График отпусков 2022 год'!$O9-'График отпусков 2022 год'!$M9)-2,"")</f>
-        <v/>
+        <v>177</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
+      <c r="Q9" s="14">
+        <v>44876</v>
+      </c>
+      <c r="R9" s="8">
+        <v>10</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="4"/>
+        <v>44885</v>
+      </c>
       <c r="T9" s="10">
         <v>28</v>
       </c>
       <c r="U9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V9" s="25">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>-22</v>
       </c>
-      <c r="X9" s="12" t="str">
+      <c r="X9" s="12">
         <f>IF('График отпусков 2022 год'!$G9-'График отпусков 2022 год'!$E9&gt;0,'График отпусков 2022 год'!$G9-'График отпусков 2022 год'!$E9+1,"")</f>
-        <v/>
+        <v>17</v>
       </c>
-      <c r="Y9" s="13" t="str">
+      <c r="Y9" s="13">
         <f>IF('График отпусков 2022 год'!$K9-'График отпусков 2022 год'!$I9&gt;0,'График отпусков 2022 год'!$K9-'График отпусков 2022 год'!$I9+1,"")</f>
-        <v/>
+        <v>17</v>
       </c>
-      <c r="Z9" s="13" t="str">
+      <c r="Z9" s="13">
         <f>IF('График отпусков 2022 год'!$O9-'График отпусков 2022 год'!$M9&gt;0,'График отпусков 2022 год'!$O9-'График отпусков 2022 год'!$M9+1,"")</f>
-        <v/>
+        <v>12</v>
       </c>
-      <c r="AA9" s="13" t="str">
+      <c r="AA9" s="13">
         <f>IF('График отпусков 2022 год'!$S9-'График отпусков 2022 год'!$Q9&gt;0,'График отпусков 2022 год'!$S9-'График отпусков 2022 год'!$Q9+1,"")</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="13.2">
@@ -1987,58 +2105,86 @@
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>-44561</v>
+        <v>8</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8" t="str">
+      <c r="E10" s="14">
+        <v>44569</v>
+      </c>
+      <c r="F10" s="8">
+        <v>16</v>
+      </c>
+      <c r="G10" s="14">
+        <f>WORKDAY.INTL(E10,F10,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44585</v>
+      </c>
+      <c r="H10" s="8">
         <f>IF(AND(I10-$C10&gt;0,'График отпусков 2022 год'!$F10&gt;0),I10-$C10-D10-('График отпусков 2022 год'!$G10-'График отпусков 2022 год'!$E10),"")</f>
-        <v/>
+        <v>31</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="8" t="str">
+      <c r="I10" s="14">
+        <v>44617</v>
+      </c>
+      <c r="J10" s="8">
+        <v>16</v>
+      </c>
+      <c r="K10" s="14">
+        <f>WORKDAY.INTL(I10,J10,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44634</v>
+      </c>
+      <c r="L10" s="8">
         <f>IF(AND(M10-$C10&gt;0,'График отпусков 2022 год'!$F10&gt;0,'График отпусков 2022 год'!$J10&gt;0),M10-$C10-$D10-('График отпусков 2022 год'!$G10-'График отпусков 2022 год'!$E10)-$H10-('График отпусков 2022 год'!$K10-'График отпусков 2022 год'!$I10)-1,"")</f>
-        <v/>
+        <v>53</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="8" t="str">
+      <c r="M10" s="14">
+        <v>44688</v>
+      </c>
+      <c r="N10" s="8">
+        <v>11</v>
+      </c>
+      <c r="O10" s="14">
+        <f>WORKDAY.INTL(M10,N10,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44700</v>
+      </c>
+      <c r="P10" s="8">
         <f>IF(AND(Q10-$C10&gt;0,'График отпусков 2022 год'!$F10&gt;0,'График отпусков 2022 год'!$J10&gt;0,'График отпусков 2022 год'!$N10&gt;0),Q10-$C10-$D10-('График отпусков 2022 год'!$G10-'График отпусков 2022 год'!$E10)-$H10-('График отпусков 2022 год'!$K10-'График отпусков 2022 год'!$I10)-L10-('График отпусков 2022 год'!$O10-'График отпусков 2022 год'!$M10)-2,"")</f>
-        <v/>
+        <v>176</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
+      <c r="Q10" s="14">
+        <v>44877</v>
+      </c>
+      <c r="R10" s="8">
+        <v>11</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="4"/>
+        <v>44887</v>
+      </c>
       <c r="T10" s="10">
         <v>28</v>
       </c>
       <c r="U10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="V10" s="25">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>-26</v>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="12">
         <f>IF('График отпусков 2022 год'!$G10-'График отпусков 2022 год'!$E10&gt;0,'График отпусков 2022 год'!$G10-'График отпусков 2022 год'!$E10+1,"")</f>
-        <v/>
+        <v>17</v>
       </c>
-      <c r="Y10" s="13" t="str">
+      <c r="Y10" s="13">
         <f>IF('График отпусков 2022 год'!$K10-'График отпусков 2022 год'!$I10&gt;0,'График отпусков 2022 год'!$K10-'График отпусков 2022 год'!$I10+1,"")</f>
-        <v/>
+        <v>18</v>
       </c>
-      <c r="Z10" s="13" t="str">
+      <c r="Z10" s="13">
         <f>IF('График отпусков 2022 год'!$O10-'График отпусков 2022 год'!$M10&gt;0,'График отпусков 2022 год'!$O10-'График отпусков 2022 год'!$M10+1,"")</f>
-        <v/>
+        <v>13</v>
       </c>
-      <c r="AA10" s="13" t="str">
+      <c r="AA10" s="13">
         <f>IF('График отпусков 2022 год'!$S10-'График отпусков 2022 год'!$Q10&gt;0,'График отпусков 2022 год'!$S10-'График отпусков 2022 год'!$Q10+1,"")</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="13.2">
@@ -2052,58 +2198,86 @@
       </c>
       <c r="D11" s="29">
         <f t="shared" si="0"/>
-        <v>-44561</v>
+        <v>9</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33" t="str">
+      <c r="E11" s="14">
+        <v>44570</v>
+      </c>
+      <c r="F11" s="8">
+        <v>17</v>
+      </c>
+      <c r="G11" s="14">
+        <f>WORKDAY.INTL(E11,F11,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44587</v>
+      </c>
+      <c r="H11" s="8">
         <f>IF(AND(I11-$C11&gt;0,'График отпусков 2022 год'!$F11&gt;0),I11-$C11-D11-('График отпусков 2022 год'!$G11-'График отпусков 2022 год'!$E11),"")</f>
-        <v/>
+        <v>30</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31" t="str">
+      <c r="I11" s="14">
+        <v>44618</v>
+      </c>
+      <c r="J11" s="8">
+        <v>17</v>
+      </c>
+      <c r="K11" s="14">
+        <f>WORKDAY.INTL(I11,J11,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44636</v>
+      </c>
+      <c r="L11" s="8">
         <f>IF(AND(M11-$C11&gt;0,'График отпусков 2022 год'!$F11&gt;0,'График отпусков 2022 год'!$J11&gt;0),M11-$C11-$D11-('График отпусков 2022 год'!$G11-'График отпусков 2022 год'!$E11)-$H11-('График отпусков 2022 год'!$K11-'График отпусков 2022 год'!$I11)-1,"")</f>
-        <v/>
+        <v>52</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="31" t="str">
+      <c r="M11" s="14">
+        <v>44689</v>
+      </c>
+      <c r="N11" s="8">
+        <v>12</v>
+      </c>
+      <c r="O11" s="14">
+        <f>WORKDAY.INTL(M11,N11,"0000000",Праздники!$C$2:$C$15)</f>
+        <v>44702</v>
+      </c>
+      <c r="P11" s="8">
         <f>IF(AND(Q11-$C11&gt;0,'График отпусков 2022 год'!$F11&gt;0,'График отпусков 2022 год'!$J11&gt;0,'График отпусков 2022 год'!$N11&gt;0),Q11-$C11-$D11-('График отпусков 2022 год'!$G11-'График отпусков 2022 год'!$E11)-$H11-('График отпусков 2022 год'!$K11-'График отпусков 2022 год'!$I11)-L11-('График отпусков 2022 год'!$O11-'График отпусков 2022 год'!$M11)-2,"")</f>
-        <v/>
+        <v>175</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35">
+      <c r="Q11" s="14">
+        <v>44878</v>
+      </c>
+      <c r="R11" s="8">
+        <v>12</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="4"/>
+        <v>44889</v>
+      </c>
+      <c r="T11" s="30">
         <v>28</v>
       </c>
-      <c r="U11" s="36">
+      <c r="U11" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58</v>
       </c>
-      <c r="V11" s="37">
+      <c r="V11" s="32">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>-30</v>
       </c>
-      <c r="X11" s="12" t="str">
+      <c r="X11" s="12">
         <f>IF('График отпусков 2022 год'!$G11-'График отпусков 2022 год'!$E11&gt;0,'График отпусков 2022 год'!$G11-'График отпусков 2022 год'!$E11+1,"")</f>
-        <v/>
+        <v>18</v>
       </c>
-      <c r="Y11" s="13" t="str">
+      <c r="Y11" s="13">
         <f>IF('График отпусков 2022 год'!$K11-'График отпусков 2022 год'!$I11&gt;0,'График отпусков 2022 год'!$K11-'График отпусков 2022 год'!$I11+1,"")</f>
-        <v/>
+        <v>19</v>
       </c>
-      <c r="Z11" s="13" t="str">
+      <c r="Z11" s="13">
         <f>IF('График отпусков 2022 год'!$O11-'График отпусков 2022 год'!$M11&gt;0,'График отпусков 2022 год'!$O11-'График отпусков 2022 год'!$M11+1,"")</f>
-        <v/>
+        <v>14</v>
       </c>
-      <c r="AA11" s="13" t="str">
+      <c r="AA11" s="13">
         <f>IF('График отпусков 2022 год'!$S11-'График отпусков 2022 год'!$Q11&gt;0,'График отпусков 2022 год'!$S11-'График отпусков 2022 год'!$Q11+1,"")</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
